--- a/sensorboard/cal/Sensorboard_SN0.xlsx
+++ b/sensorboard/cal/Sensorboard_SN0.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Voltage" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="RF Forward" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="RF Reverse" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Notes" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t xml:space="preserve">Ground Truth</t>
   </si>
@@ -36,18 +37,19 @@
     <t xml:space="preserve">Ground Truth (W)</t>
   </si>
   <si>
-    <t xml:space="preserve">Truth (V)</t>
+    <t xml:space="preserve">Raw (Counts)</t>
   </si>
   <si>
-    <t xml:space="preserve">Counts (ADC)</t>
+    <t xml:space="preserve">Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -120,7 +122,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -134,6 +136,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,8 +272,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,626 +296,613 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>479</v>
+        <v>720</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>479</v>
+        <v>720</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>720</v>
+        <v>959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>720</v>
+        <v>959</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>959</v>
+        <v>1440</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>959</v>
+        <v>1439</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1440</v>
+        <v>1921</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>1439</v>
+        <v>1919</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1921</v>
+        <v>2401</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1919</v>
+        <v>2399</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2401</v>
+        <v>2882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2399</v>
+        <v>2880</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2882</v>
+        <v>3361</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>2880</v>
+        <v>3360</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>3361</v>
+        <v>3842</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>3360</v>
+        <v>3839</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3842</v>
+        <v>4321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>3839</v>
+        <v>4319</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>4321</v>
+        <v>4800</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>4319</v>
+        <v>4798</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>4800</v>
+        <v>5277</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>4798</v>
+        <v>5275</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>5277</v>
+        <v>5752</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>5275</v>
+        <v>5751</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>6.498</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>5752</v>
+        <v>6222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>5751</v>
+        <v>6222</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>6.498</v>
+        <v>6.999</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>6222</v>
+        <v>6687</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>6222</v>
+        <v>6691</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>6.999</v>
+        <v>7.498</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>6687</v>
+        <v>7142</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>6691</v>
+        <v>7149</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>7.498</v>
+        <v>7.998</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>7142</v>
+        <v>7582</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>7149</v>
+        <v>7596</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>7.998</v>
+        <v>8.497</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>7582</v>
+        <v>8006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>7596</v>
+        <v>8028</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>8.497</v>
+        <v>8.999</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>8006</v>
+        <v>8409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>8028</v>
+        <v>8442</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>8.999</v>
+        <v>9.499</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>8409</v>
+        <v>8787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>8442</v>
+        <v>8834</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>9.499</v>
+        <v>9.998</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>8787</v>
+        <v>9140</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>8834</v>
+        <v>9200</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>9.998</v>
+        <v>10.498</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>9140</v>
+        <v>9466</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>9200</v>
+        <v>9541</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>10.498</v>
+        <v>10.998</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>9466</v>
+        <v>9766</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>9541</v>
+        <v>9758</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>10.998</v>
+        <v>11.498</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>9766</v>
+        <v>10043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>9758</v>
+        <v>10147</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>11.498</v>
+        <v>11.998</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>10043</v>
+        <v>10276</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>10147</v>
+        <v>10415</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>11.998</v>
+        <v>12.497</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>10276</v>
+        <v>10531</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>10415</v>
+        <v>10661</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>12.497</v>
+        <v>12.597</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>10531</v>
+        <v>10575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>10661</v>
+        <v>10707</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>12.597</v>
+        <v>12.697</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>10575</v>
+        <v>10619</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>10707</v>
+        <v>10754</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>12.697</v>
+        <v>12.798</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>10619</v>
+        <v>10661</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>10754</v>
+        <v>10799</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>12.798</v>
+        <v>12.899</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>10661</v>
+        <v>10704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>10799</v>
+        <v>10844</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>12.899</v>
+        <v>12.999</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>10704</v>
+        <v>10746</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>10844</v>
+        <v>10888</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>12.999</v>
+        <v>13.097</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>10746</v>
+        <v>10786</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>10888</v>
+        <v>10931</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>13.097</v>
+        <v>13.197</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>10786</v>
+        <v>10826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>10931</v>
+        <v>10974</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>13.197</v>
+        <v>13.297</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>10826</v>
+        <v>10867</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>10974</v>
+        <v>11015</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>13.297</v>
+        <v>13.398</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>10867</v>
+        <v>10905</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>11015</v>
+        <v>11057</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>13.398</v>
+        <v>13.498</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>10905</v>
+        <v>10944</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>11057</v>
-      </c>
+        <v>11098</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>13.498</v>
+        <v>13.598</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>10944</v>
+        <v>10972</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>11098</v>
+        <v>11138</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>13.598</v>
+        <v>13.698</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>10972</v>
+        <v>11020</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>11138</v>
+        <v>11178</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>13.698</v>
+        <v>13.797</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>11020</v>
+        <v>11057</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>11178</v>
+        <v>11216</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>13.797</v>
+        <v>13.897</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>11057</v>
+        <v>11093</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>11216</v>
+        <v>11254</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>13.897</v>
+        <v>13.998</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>11093</v>
+        <v>11129</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>11254</v>
+        <v>11293</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>13.998</v>
+        <v>14.098</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>11129</v>
+        <v>11165</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>11293</v>
+        <v>11330</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>14.098</v>
+        <v>14.198</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>11165</v>
+        <v>11199</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>11330</v>
+        <v>11366</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>14.198</v>
+        <v>14.298</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>11199</v>
+        <v>11234</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>11366</v>
+        <v>11402</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>14.298</v>
+        <v>14.397</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>11234</v>
+        <v>11267</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>11402</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>11437</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>14.397</v>
+        <v>14.497</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>11267</v>
+        <v>11300</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>11437</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>11473</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>14.497</v>
+        <v>14.597</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>11300</v>
+        <v>11333</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>11473</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>11508</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>14.597</v>
+        <v>14.698</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>11333</v>
+        <v>11366</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>11508</v>
-      </c>
-      <c r="F49" s="3"/>
+        <v>11542</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>14.698</v>
+        <v>14.798</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>11366</v>
+        <v>11399</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>11542</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>11575</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>14.798</v>
+        <v>14.898</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>11399</v>
+        <v>11430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>11575</v>
+        <v>11609</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>14.898</v>
+        <v>14.998</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>11430</v>
+        <v>11461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>11609</v>
+        <v>11641</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>14.998</v>
-      </c>
-      <c r="B53" s="1" t="n">
-        <v>11461</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>11641</v>
-      </c>
       <c r="F53" s="3"/>
     </row>
   </sheetData>
@@ -924,16 +921,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D:D"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="15.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,32 +940,21 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>2000</v>
+        <v>29.5</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>7891</v>
       </c>
     </row>
   </sheetData>
@@ -987,31 +973,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="D:D C4"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="15.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="5" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1019,20 +1009,88 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>2000</v>
-      </c>
+      <c r="A3" s="5" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>10972</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="n">
+        <v>10961</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="1"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
